--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23107"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78878B12-5D81-4899-82D6-1DA8B4B85FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2FCC32-2F13-4986-BB76-7CE82F8E155F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -860,7 +860,7 @@
     <t>chatroom_users_id</t>
   </si>
   <si>
-    <t>参加日</t>
+    <t>参加日時</t>
   </si>
   <si>
     <t>joined_at</t>
@@ -1120,8 +1120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1161,6 +1159,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30288,15 +30288,15 @@
       </c>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30307,15 +30307,15 @@
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30326,18 +30326,18 @@
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="35"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30368,11 +30368,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30400,11 +30400,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="35"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30428,11 +30428,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30454,11 +30454,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="35"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30486,11 +30486,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="35"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30512,11 +30512,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30540,11 +30540,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="35"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30566,11 +30566,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30594,8 +30594,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30645,13 +30645,13 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30662,13 +30662,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30677,16 +30677,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="35"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30719,7 +30719,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30749,7 +30749,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="35"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30775,7 +30775,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30801,7 +30801,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30829,7 +30829,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="35"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30853,7 +30853,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30877,7 +30877,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="35"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30901,7 +30901,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30933,7 +30933,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30959,8 +30959,8 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38">
+      <c r="A14" s="48"/>
+      <c r="B14" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -30970,47 +30970,47 @@
       <c r="D14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="43" t="s">
+      <c r="I14" s="39"/>
+      <c r="J14" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="41"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31031,9 +31031,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31060,13 +31060,13 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31077,13 +31077,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31092,16 +31092,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="35"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31134,7 +31134,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -31164,7 +31164,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="35"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31192,7 +31192,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31216,7 +31216,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31248,7 +31248,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="35"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31280,7 +31280,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31312,7 +31312,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="35"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31338,7 +31338,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31368,8 +31368,8 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38">
+      <c r="A13" s="48"/>
+      <c r="B13" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -31379,24 +31379,24 @@
       <c r="D13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="43" t="s">
+      <c r="I13" s="39"/>
+      <c r="J13" s="41" t="s">
         <v>99</v>
       </c>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="35"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31474,13 +31474,13 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31491,13 +31491,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31506,16 +31506,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="35"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31548,7 +31548,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
@@ -31578,7 +31578,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="35"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31608,7 +31608,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31638,7 +31638,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31664,7 +31664,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="35"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31686,7 +31686,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31718,7 +31718,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="35"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31750,7 +31750,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31776,7 +31776,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31806,8 +31806,8 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="35"/>
-      <c r="B14" s="45">
+      <c r="A14" s="48"/>
+      <c r="B14" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -31817,24 +31817,24 @@
       <c r="D14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="43" t="s">
+      <c r="I14" s="46"/>
+      <c r="J14" s="41" t="s">
         <v>99</v>
       </c>
       <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="35"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31912,13 +31912,13 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31929,13 +31929,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31944,16 +31944,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="35"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31986,7 +31986,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
@@ -32016,7 +32016,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="35"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32046,7 +32046,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32072,7 +32072,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32096,7 +32096,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="35"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32120,7 +32120,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="48" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -32128,7 +32128,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32154,7 +32154,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="35"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32184,7 +32184,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32212,7 +32212,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32260,9 +32260,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32290,13 +32290,13 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -32307,13 +32307,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -32322,16 +32322,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="35"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32364,7 +32364,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
@@ -32388,7 +32388,7 @@
       <c r="I5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="35" t="s">
         <v>134</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -32396,7 +32396,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="34" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32426,7 +32426,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32448,11 +32448,11 @@
         <v>24</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32468,7 +32468,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="35"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32484,7 +32484,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32500,7 +32500,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="35"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32516,7 +32516,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32532,7 +32532,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32548,17 +32548,17 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32581,7 +32581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32600,13 +32600,13 @@
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -32615,13 +32615,13 @@
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -32630,16 +32630,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="35"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32672,7 +32672,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -32688,7 +32688,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="35"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32704,7 +32704,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32720,7 +32720,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="35"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32736,7 +32736,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="35"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32752,7 +32752,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32768,7 +32768,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="35"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32784,7 +32784,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32800,7 +32800,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="35"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32816,7 +32816,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="35"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32832,7 +32832,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="35"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32848,7 +32848,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="35"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
